--- a/output/table/prediction_accuracy.xlsx
+++ b/output/table/prediction_accuracy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujunzhou/Box Sync/Research/WD-Early-Warning-Food-Insecurity/output/table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\WD-Early-Warning-Food-Insecurity\output\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6DA5B48-F3AF-9544-85EE-9699CD470C57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D0C521-FF41-45E9-84CA-B82DF847E9F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16140" xr2:uid="{EF8B5D74-F3EE-6047-970C-FF2D548912EC}"/>
+    <workbookView xWindow="14400" yWindow="465" windowWidth="14400" windowHeight="16140" xr2:uid="{EF8B5D74-F3EE-6047-970C-FF2D548912EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>random.ols</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>rCSI</t>
+  </si>
+  <si>
+    <t>year.ols+ quarterFE</t>
+  </si>
+  <si>
+    <t>year.ols+ monthFE+quaterFE</t>
+  </si>
+  <si>
+    <t>random.ols+ quarterFE</t>
+  </si>
+  <si>
+    <t>random.ols+ monthFE+quaterFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old result </t>
   </si>
 </sst>
 </file>
@@ -53,9 +68,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,7 +101,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,18 +416,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739AA721-BBF2-6148-BB0D-9BD7EF1061B4}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -423,63 +438,144 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.623</v>
+      </c>
+      <c r="E3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.54527760000000003</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.61605690000000002</v>
-      </c>
-      <c r="E3" s="1">
-        <v>8.1974870000000005E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
+      <c r="C5" s="1">
+        <v>0.54870490000000005</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.56888430000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.1299255</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.55995499999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.60089119999999996</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.1272171</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.56921231000000005</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.59517779999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.1001644</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.54483309999999996</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.60430329999999999</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7.9707260000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
+      <c r="C8" s="1">
+        <v>0.56968423999999995</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.60020070000000003</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.11101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.50394329999999998</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.50394329999999998</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.18707190000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
+      <c r="C11" s="1">
+        <v>0.49707180000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5477649</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9.5098600000000005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.51814559999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.54071519999999995</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.1117934</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.52620599999999995</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.54198760000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.1802338</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.50993049999999995</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.52244979999999996</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.23074210000000001</v>
+      <c r="C14" s="1">
+        <v>0.50783639999999997</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.5592047</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.1662719</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/table/prediction_accuracy.xlsx
+++ b/output/table/prediction_accuracy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\WD-Early-Warning-Food-Insecurity\output\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D0C521-FF41-45E9-84CA-B82DF847E9F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CEBF63-EC66-452D-8EDC-CF41EEB4A4A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="465" windowWidth="14400" windowHeight="16140" xr2:uid="{EF8B5D74-F3EE-6047-970C-FF2D548912EC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>random.ols</t>
   </si>
@@ -51,9 +51,6 @@
     <t>year.ols+ quarterFE</t>
   </si>
   <si>
-    <t>year.ols+ monthFE+quaterFE</t>
-  </si>
-  <si>
     <t>random.ols+ quarterFE</t>
   </si>
   <si>
@@ -61,6 +58,27 @@
   </si>
   <si>
     <t xml:space="preserve">Old result </t>
+  </si>
+  <si>
+    <t>R squared</t>
+  </si>
+  <si>
+    <t>Predicting insecure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall accuracy </t>
+  </si>
+  <si>
+    <t>year.ols+quarter*region FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year.ols+ monthFE </t>
+  </si>
+  <si>
+    <t>year.ols + lag price</t>
+  </si>
+  <si>
+    <t>year.ols + GIEWS price</t>
   </si>
 </sst>
 </file>
@@ -99,9 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739AA721-BBF2-6148-BB0D-9BD7EF1061B4}">
-  <dimension ref="B2:E14"/>
+  <dimension ref="B1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -427,7 +448,24 @@
     <col min="2" max="2" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -437,10 +475,28 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0.53600000000000003</v>
@@ -452,7 +508,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -466,115 +522,149 @@
         <v>0.1299255</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C9" s="1">
         <v>0.55995499999999998</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D9" s="1">
         <v>0.60089119999999996</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E9" s="1">
         <v>0.1272171</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.56921231000000005</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.59517779999999998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.1001644</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.56968423999999995</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.60020070000000003</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.11101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.49707180000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.5477649</v>
+      </c>
+      <c r="E32" s="1">
+        <v>9.5098600000000005E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.56921231000000005</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.59517779999999998</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.1001644</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.56968423999999995</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.60020070000000003</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.11101</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.49707180000000001</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.5477649</v>
-      </c>
-      <c r="E11" s="1">
-        <v>9.5098600000000005E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C33" s="1">
+        <v>0.51814559999999998</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.54071519999999995</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.1117934</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.51814559999999998</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.54071519999999995</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.1117934</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="C34" s="1">
         <v>0.52620599999999995</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D34" s="1">
         <v>0.54198760000000001</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E34" s="1">
         <v>0.1802338</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C35" s="1">
         <v>0.50783639999999997</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D35" s="1">
         <v>0.5592047</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E35" s="1">
         <v>0.1662719</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/output/table/prediction_accuracy.xlsx
+++ b/output/table/prediction_accuracy.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\WD-Early-Warning-Food-Insecurity\output\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CEBF63-EC66-452D-8EDC-CF41EEB4A4A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083D24B5-A4E9-41C1-B957-392CB29C52A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="465" windowWidth="14400" windowHeight="16140" xr2:uid="{EF8B5D74-F3EE-6047-970C-FF2D548912EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>random.ols</t>
   </si>
@@ -33,9 +34,6 @@
     <t xml:space="preserve">random.LASSO </t>
   </si>
   <si>
-    <t>year.ols</t>
-  </si>
-  <si>
     <t>year.LASSO</t>
   </si>
   <si>
@@ -75,10 +73,61 @@
     <t xml:space="preserve">year.ols+ monthFE </t>
   </si>
   <si>
-    <t>year.ols + lag price</t>
-  </si>
-  <si>
     <t>year.ols + GIEWS price</t>
+  </si>
+  <si>
+    <t>ols_old</t>
+  </si>
+  <si>
+    <t>ols_temp</t>
+  </si>
+  <si>
+    <t>ols_lag_price</t>
+  </si>
+  <si>
+    <t>ols_quarter</t>
+  </si>
+  <si>
+    <t>ols_quarter_lagprice</t>
+  </si>
+  <si>
+    <t>ols_quarter_noprice</t>
+  </si>
+  <si>
+    <t>ols_region</t>
+  </si>
+  <si>
+    <t>ols_quarter_region</t>
+  </si>
+  <si>
+    <t>ols_quarter_region_noprice</t>
+  </si>
+  <si>
+    <t>ols_month</t>
+  </si>
+  <si>
+    <t>ols_month_region</t>
+  </si>
+  <si>
+    <t>ols_giews_price</t>
+  </si>
+  <si>
+    <t>ols_month_price</t>
+  </si>
+  <si>
+    <t>ols_trend</t>
+  </si>
+  <si>
+    <t>Results in paper</t>
+  </si>
+  <si>
+    <t>Split by year</t>
+  </si>
+  <si>
+    <t>Split randomly</t>
+  </si>
+  <si>
+    <t>Split by region (use south and central to predict north)</t>
   </si>
 </sst>
 </file>
@@ -88,8 +137,22 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,10 +180,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -437,66 +516,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739AA721-BBF2-6148-BB0D-9BD7EF1061B4}">
-  <dimension ref="B1:M35"/>
+  <dimension ref="B1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>0.53600000000000003</v>
@@ -507,165 +588,1549 @@
       <c r="E3">
         <v>0.16900000000000001</v>
       </c>
+      <c r="F3" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.54870490000000005</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.56888430000000001</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.1299255</v>
-      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="5">
+        <v>0.6351542</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.64701260000000005</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.11365740000000001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.83333330000000005</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.9935484</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.88172039999999996</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.76354679999999997</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.85714290000000004</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.59113300000000002</v>
+      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="5">
+        <v>0.63175899999999996</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.6424318</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.10555879999999999</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.88888889999999998</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.87096770000000001</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.72906400000000005</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.85714290000000004</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.59113300000000002</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.62674770000000002</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.6560492</v>
+      </c>
+      <c r="E8" s="5">
+        <v>9.7335840000000007E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.88888889999999998</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.9935484</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.91397850000000003</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.74876849999999995</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.86206899999999997</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.52709360000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.64429309999999995</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.65610049999999998</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.1066429</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.66666669999999995</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.9870968</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.79569889999999999</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.89655169999999995</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.88177340000000004</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.63546800000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.63435929999999996</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.66339380000000003</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8.9244509999999999E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.72222220000000004</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.89247310000000002</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.8768473</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.88177340000000004</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.61083739999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.63818370000000002</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.66069310000000003</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.1191707</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.22222220000000001</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.96774190000000004</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.25806449999999997</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.91625619999999997</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.88177340000000004</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.59113300000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.62590889999999999</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.59774720000000003</v>
+      </c>
+      <c r="E12" s="5">
+        <v>9.0409879999999998E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.83333330000000005</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.9935484</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.84946239999999995</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.73399009999999998</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.8472906</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.53201969999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.55813840000000003</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.54975010000000002</v>
+      </c>
+      <c r="E13" s="5">
+        <v>7.2541830000000002E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.44444440000000002</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.96774190000000004</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.54838710000000002</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.88669949999999997</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.86206899999999997</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.57142859999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.55698610000000004</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.55418400000000001</v>
+      </c>
+      <c r="E14" s="5">
+        <v>7.2545419999999999E-2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.27777780000000002</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.95483870000000004</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.29032259999999999</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.91625619999999997</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.86206899999999997</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.61576350000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.62624029999999997</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.66019859999999997</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.13331799999999999</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.38888889999999998</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.96774190000000004</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.43010749999999998</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.92610840000000005</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.88669949999999997</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.63054189999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.61283560000000004</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.60260760000000002</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.1166325</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.27777780000000002</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.96774190000000004</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.43010749999999998</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.90640390000000004</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.8768473</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.61083739999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.63394039999999996</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.66120820000000002</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3.5708879999999998E-2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.72222220000000004</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.9935484</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.97849459999999999</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.79310340000000001</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.89162560000000002</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.46798030000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.62454549999999998</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.65511220000000003</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.12594140000000001</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.22222220000000001</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.95483870000000004</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.62365590000000004</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.91625619999999997</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.88669949999999997</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.59605909999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.62655439999999996</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.65877649999999999</v>
+      </c>
+      <c r="E19" s="5">
+        <v>9.8098610000000003E-2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.90640390000000004</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.78817729999999997</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.54187189999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.52152169999999998</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.52955509999999995</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.18819540000000001</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.29411759999999998</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.96812750000000003</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.49107139999999999</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.80208330000000005</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.92708330000000005</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.64583330000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.55995499999999998</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.60089119999999996</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.1272171</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.56921231000000005</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.59517779999999998</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.1001644</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.56968423999999995</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.60020070000000003</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.11101</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.49707180000000001</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.5477649</v>
-      </c>
-      <c r="E32" s="1">
-        <v>9.5098600000000005E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.51814559999999998</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.54071519999999995</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.1117934</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.52620599999999995</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.54198760000000001</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.1802338</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.50783639999999997</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.5592047</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.1662719</v>
+      <c r="C24" s="5">
+        <v>0.51446579999999997</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.52801799999999999</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.23382610000000001</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.27941179999999999</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.96812750000000003</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.54464290000000004</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.78472220000000004</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.92361110000000002</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.68055560000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.51840980000000003</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.52492240000000001</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.19835230000000001</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.29411759999999998</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.9601594</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.51785709999999996</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.80208330000000005</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.91666669999999995</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.63541669999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.55928040000000001</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.55645290000000003</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.20511119999999999</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.3823529</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.9601594</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.54464290000000004</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.82291669999999995</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.92708330000000005</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.65972220000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.55826989999999999</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.55263620000000002</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.21391760000000001</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.3676471</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.9601594</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.52678570000000002</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.81944439999999996</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.92708330000000005</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.63888889999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.55853149999999996</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.55471700000000002</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.1792559</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.3676471</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.9601594</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.47321429999999998</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.81944439999999996</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.92708330000000005</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.63888889999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.51343950000000005</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.52568859999999995</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.2154171</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.26470589999999999</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.96414339999999998</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.53571429999999998</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.79166669999999995</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.92013889999999998</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.65277779999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.56062789999999996</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.55173470000000002</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.2405302</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.41176469999999998</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.95617529999999995</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.58035709999999996</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.81597220000000004</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.92013889999999998</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.68055560000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.56092839999999999</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.54992609999999997</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.2105938</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.39705879999999999</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.95219120000000002</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.53571429999999998</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.81597220000000004</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.91666669999999995</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.66319439999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.56022930000000004</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.56929819999999998</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.24713209999999999</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.41176469999999998</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.96414339999999998</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.59821429999999998</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.80555560000000004</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.92708330000000005</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.68055560000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.5542203</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.56676159999999998</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.26999570000000001</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.39705879999999999</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.96812750000000003</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.58928570000000002</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.80902779999999996</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.93055560000000004</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.69444439999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.5207735</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.52952469999999996</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.18506710000000001</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.30882349999999997</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.96414339999999998</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.48214289999999999</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.80555560000000004</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.92013889999999998</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.61458330000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.5539712</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.56733990000000001</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.25543480000000002</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.39705879999999999</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.96812750000000003</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.60714290000000004</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.78819439999999996</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.92708330000000005</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.67361099999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.5309064</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.53118129999999997</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.2109452</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.29411759999999998</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.9601594</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.52678570000000002</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.80208330000000005</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.92013889999999998</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0.64583330000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.59012330000000002</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.66221149999999995</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.12361370000000001</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.3125</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.78048779999999995</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.4166667</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.94339620000000002</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.76415089999999997</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.71226420000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.59508910000000004</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.66182459999999999</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.1289661</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.77235770000000004</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.36111110000000002</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.93867920000000005</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.76415089999999997</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0.71698110000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.58891369999999998</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.67238739999999997</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.13881950000000001</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.78048779999999995</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.47222219999999998</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.95283019999999996</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.76886790000000005</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.69811319999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.57377330000000004</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.65962949999999998</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.1147072</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.3125</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.77235770000000004</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.4166667</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.94339620000000002</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.76886790000000005</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.73584910000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.57120919999999997</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.66808299999999998</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.1274661</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.74796750000000001</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.4166667</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.93867920000000005</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.76415089999999997</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0.72169810000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.5758257</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.67553629999999998</v>
+      </c>
+      <c r="E44" s="5">
+        <v>6.344735E-2</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.3125</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.74796750000000001</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.22222220000000001</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.93396230000000002</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.76415089999999997</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.69339620000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.59031060000000002</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.66484799999999999</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.1203729</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.3125</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.79674800000000001</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.47222219999999998</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0.94339620000000002</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0.76415089999999997</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.67452829999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.5710518</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.66515349999999995</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.13472709999999999</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.82113820000000004</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.36111110000000002</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.94339620000000002</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0.81132079999999995</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.73113209999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.57187670000000002</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.6676204</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.12764890000000001</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.84552850000000002</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.47222219999999998</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0.93867920000000005</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0.80660379999999998</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.70282999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.5803547</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.67035509999999998</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.15367690000000001</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.78048779999999995</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0.95283019999999996</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0.76415089999999997</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0.69811319999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.55126520000000001</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.64799079999999998</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.15836520000000001</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.85365849999999999</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0.47222219999999998</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0.93867920000000005</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0.81603769999999998</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0.73113209999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.57746909999999996</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.67130339999999999</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.14648220000000001</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.81300810000000001</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0.4166667</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.93867920000000005</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0.78773579999999999</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0.70283019999999996</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B38:K38"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DB1D7A-6952-45B1-9EE2-9EDD07BED9D4}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.55995499999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.60089119999999996</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.1272171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.56921231000000005</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.59517779999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.1001644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.56968423999999995</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.60020070000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.11101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.49707180000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.5477649</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9.5098600000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.51814559999999998</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.54071519999999995</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.1117934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.52620599999999995</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.54198760000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.1802338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.50783639999999997</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.5592047</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.1662719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D23">
+        <v>0.623</v>
+      </c>
+      <c r="E23">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>